--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T15:59:03+00:00</t>
+    <t>2022-03-07T16:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T16:28:10+00:00</t>
+    <t>2022-03-17T14:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T14:27:38+00:00</t>
+    <t>2022-03-17T16:23:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T16:23:37+00:00</t>
+    <t>2022-03-17T16:24:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T16:24:03+00:00</t>
+    <t>2022-03-18T08:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T08:55:58+00:00</t>
+    <t>2022-03-18T08:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T08:59:17+00:00</t>
+    <t>2022-03-18T09:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T09:03:10+00:00</t>
+    <t>2022-03-18T11:13:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:13:47+00:00</t>
+    <t>2022-03-18T11:20:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:20:11+00:00</t>
+    <t>2022-03-18T11:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:29:02+00:00</t>
+    <t>2022-03-18T11:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:37:05+00:00</t>
+    <t>2022-03-18T11:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-sd-karnofsky-performance-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T11:44:19+00:00</t>
+    <t>2022-03-18T11:45:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
